--- a/Jogos_do_Dia/2023-01-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -653,10 +653,10 @@
         <v>3.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -695,28 +695,28 @@
         <v>3.33</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="N3" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -805,28 +805,28 @@
         <v>2.86</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
@@ -855,10 +855,10 @@
         <v>4.2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -873,10 +873,10 @@
         <v>4.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -915,28 +915,28 @@
         <v>3.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1025,28 +1025,28 @@
         <v>2.82</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1135,25 +1135,25 @@
         <v>3.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.58</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1203,10 +1203,10 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1245,25 +1245,25 @@
         <v>2.96</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>4.92</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.63</v>
       </c>
       <c r="I9" t="n">
         <v>1.1</v>
@@ -1515,10 +1515,10 @@
         <v>1.57</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>5.35</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="N10" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1575,28 +1575,28 @@
         <v>3.02</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
         <v>1.07</v>
@@ -1643,10 +1643,10 @@
         <v>2.88</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N11" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -1685,28 +1685,28 @@
         <v>2.56</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>3.13</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
         <v>1.08</v>
@@ -1753,10 +1753,10 @@
         <v>2.85</v>
       </c>
       <c r="M12" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N12" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -1804,16 +1804,16 @@
         <v>2.45</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE12" t="n">
         <v>1.85</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.84</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7.36</v>
       </c>
       <c r="I13" t="n">
         <v>1.01</v>
@@ -1863,10 +1863,10 @@
         <v>4.7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -1905,25 +1905,25 @@
         <v>3.82</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.49</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>4.34</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>3.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
         <v>1.47</v>
@@ -2015,25 +2015,25 @@
         <v>2.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.85</v>
+        <v>5.25</v>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="I15" t="n">
         <v>1.05</v>
@@ -2083,10 +2083,10 @@
         <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N15" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2125,28 +2125,28 @@
         <v>2.83</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
         <v>1.04</v>
@@ -2193,10 +2193,10 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N16" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -2235,28 +2235,28 @@
         <v>3.53</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
@@ -2345,25 +2345,25 @@
         <v>3.41</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,10 +2413,10 @@
         <v>3.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N18" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
         <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
         <v>1.03</v>
@@ -2523,10 +2523,10 @@
         <v>4.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N19" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -2565,28 +2565,28 @@
         <v>3.81</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
         <v>1.03</v>
@@ -2633,10 +2633,10 @@
         <v>4.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N20" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -2675,28 +2675,28 @@
         <v>3.02</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.72</v>
+        <v>2.43</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="H21" t="n">
-        <v>2.34</v>
+        <v>2.41</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2743,10 +2743,10 @@
         <v>4.05</v>
       </c>
       <c r="M21" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.19</v>
+        <v>2.02</v>
       </c>
       <c r="G22" t="n">
         <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
         <v>1.07</v>
@@ -2853,10 +2853,10 @@
         <v>3.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="H23" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>3.7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N23" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>

--- a/Jogos_do_Dia/2023-01-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -635,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -653,10 +653,10 @@
         <v>3.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
@@ -763,10 +763,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="N3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -873,10 +873,10 @@
         <v>4.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="N6" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1144,7 +1144,7 @@
         <v>2.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE6" t="n">
         <v>1.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>3.92</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1203,10 +1203,10 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N7" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE7" t="n">
         <v>1.55</v>
@@ -1266,7 +1266,7 @@
         <v>2.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.92</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,10 +1313,10 @@
         <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.37</v>
+        <v>2.39</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1364,19 +1364,19 @@
         <v>3.58</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE8" t="n">
         <v>1.98</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
         <v>2.6</v>
@@ -1417,16 +1417,16 @@
         <v>5.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="L9" t="n">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="M9" t="n">
-        <v>2.63</v>
+        <v>2.73</v>
       </c>
       <c r="N9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.64</v>
@@ -1465,28 +1465,28 @@
         <v>2.47</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I11" t="n">
         <v>1.07</v>
@@ -1643,10 +1643,10 @@
         <v>2.88</v>
       </c>
       <c r="M11" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="N11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="G12" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>1.08</v>
@@ -1753,10 +1753,10 @@
         <v>2.85</v>
       </c>
       <c r="M12" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="N12" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -1816,7 +1816,7 @@
         <v>3.45</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="G13" t="n">
-        <v>4.84</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
         <v>1.01</v>
@@ -1863,10 +1863,10 @@
         <v>4.7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N13" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -1914,7 +1914,7 @@
         <v>4.32</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE13" t="n">
         <v>1.57</v>
@@ -1926,7 +1926,7 @@
         <v>2.4</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="G14" t="n">
-        <v>3.49</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>4.34</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,7 +1973,7 @@
         <v>3.33</v>
       </c>
       <c r="M14" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="N14" t="n">
         <v>1.83</v>
@@ -2024,7 +2024,7 @@
         <v>2.88</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE14" t="n">
         <v>1.57</v>
@@ -2036,7 +2036,7 @@
         <v>2.4</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="G15" t="n">
         <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="I15" t="n">
         <v>1.05</v>
@@ -2083,7 +2083,7 @@
         <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="N15" t="n">
         <v>1.88</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
         <v>1.04</v>
@@ -2193,10 +2193,10 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="N16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -2366,7 +2366,7 @@
         <v>3.1</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,10 +2413,10 @@
         <v>3.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N18" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
         <v>1.03</v>
@@ -2523,10 +2523,10 @@
         <v>4.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="N19" t="n">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
         <v>1.03</v>
@@ -2633,10 +2633,10 @@
         <v>4.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.43</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.41</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2743,10 +2743,10 @@
         <v>4.05</v>
       </c>
       <c r="M21" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="N21" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
         <v>1.07</v>
@@ -2853,10 +2853,10 @@
         <v>3.35</v>
       </c>
       <c r="M22" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="G23" t="n">
-        <v>3.43</v>
+        <v>3.65</v>
       </c>
       <c r="H23" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>3.7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N23" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
